--- a/data/Hoger-Lager.xlsx
+++ b/data/Hoger-Lager.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingsbb-my.sharepoint.com/personal/j_rijsdijk_s-bb_nl/Documents/Bureaublad/excelleren-in-excel.nl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{0650F6AD-D713-4A3E-8985-2FE5E6FAF333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A86E50A-1553-418F-92D7-896147D2A7DE}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{0650F6AD-D713-4A3E-8985-2FE5E6FAF333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0ADA167-8C8E-4321-B9C3-B51EE3107600}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DC9695B8-3048-439E-8364-071246D78801}"/>
   </bookViews>
@@ -215,12 +215,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -230,7 +237,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -245,7 +276,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -260,41 +291,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -632,66 +628,66 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="8.7265625" style="17"/>
-    <col min="17" max="17" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="17"/>
+    <col min="1" max="1" width="12.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="8.7265625" style="5"/>
+    <col min="17" max="17" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="28">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -700,148 +696,146 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="19">
-        <v>17</v>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="18" t="str">
+        <f>IF(A7 = "", "...",IF(A7=I1,"Geraden!",IF(A7&gt;I1,"Lager!","Hoger!")))</f>
+        <v>...</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7" t="str">
-        <f>IF(A7 = "", "...",IF(A7=I1,"Geraden!",IF(A7&gt;I1,"Lager!","Hoger!")))</f>
-        <v>Geraden!</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:9" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
